--- a/CETTestSchedule.xlsx
+++ b/CETTestSchedule.xlsx
@@ -327,10 +327,10 @@
 Sampling check daily reconcile sheet "Product Outstanding by Bill/ LG type" (TFG032P) from 1P by comparing with SAP GL (sort by branch).</t>
   </si>
   <si>
-    <t>01 Mar 2018</t>
-  </si>
-  <si>
-    <t>28 Dec 2017</t>
+    <t>01 Jun 2018</t>
+  </si>
+  <si>
+    <t>30 Mar 2018</t>
   </si>
   <si>
     <t>R-TH-2017-273-V4-R3342-C3544-CET3425</t>
@@ -352,9 +352,6 @@
   <si>
     <t>ตรวจสอบรายการเบิกเงินกู้จาก Report LN3342 (End of Day)  และ Report LN3102 กับเอกสารการเบิกกู้
 Sampling check reconciliation process of Report LN3342 (Bahtnet) against Report LN3102.</t>
-  </si>
-  <si>
-    <t>27 Dec 2017</t>
   </si>
   <si>
     <t>R-TH-2017-273-V4-R3345-C3547-CET3428</t>
@@ -476,6 +473,9 @@
   </si>
   <si>
     <t>R-TH-2017-274-V4-R3454-C3660-CET3541</t>
+  </si>
+  <si>
+    <t>31 Mar 2018</t>
   </si>
   <si>
     <t>R-TH-2017-274-V4-R3455-C3661-CET3542</t>
@@ -620,15 +620,15 @@
     <t>01 Apr 2018</t>
   </si>
   <si>
+    <t>23 Apr 2018</t>
+  </si>
+  <si>
     <t>R-TH-2017-278-V7-R28786-C29031-CET28828</t>
   </si>
   <si>
     <t>'1. Obtain Remittance Volume report  in ISP System.
 2. Select document 6 Txns each inward and outward transactions 
 3. Check watchlist have been done properly</t>
-  </si>
-  <si>
-    <t>25 Jan 2018</t>
   </si>
   <si>
     <t>R-TH-2017-278-V7-R3435-C3641-CET3522</t>
@@ -788,7 +788,7 @@
     <t>R-TH-2017-820-V2-R3382-C3583-CET3464</t>
   </si>
   <si>
-    <t>30 Jan 2018</t>
+    <t>27 Apr 2018</t>
   </si>
   <si>
     <t>R-TH-2017-820-V2-R3383-C3584-CET3465</t>
@@ -1317,7 +1317,7 @@
   <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1427,7 +1427,7 @@
         <v>47</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1438,16 +1438,16 @@
         <v>44</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>47</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1458,16 +1458,16 @@
         <v>44</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>47</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1478,16 +1478,16 @@
         <v>44</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>47</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1498,7 +1498,7 @@
         <v>44</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>0</v>
@@ -1507,7 +1507,7 @@
         <v>47</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1518,10 +1518,10 @@
         <v>44</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>47</v>
@@ -1538,10 +1538,10 @@
         <v>44</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>47</v>
@@ -1558,10 +1558,10 @@
         <v>44</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>47</v>
@@ -1578,10 +1578,10 @@
         <v>44</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>47</v>
@@ -1598,10 +1598,10 @@
         <v>44</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>47</v>
@@ -1618,16 +1618,16 @@
         <v>44</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1638,16 +1638,16 @@
         <v>44</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="E16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1658,16 +1658,16 @@
         <v>44</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1678,16 +1678,16 @@
         <v>44</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1695,19 +1695,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1715,19 +1715,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="E20" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1735,10 +1735,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>1</v>
@@ -1747,7 +1747,7 @@
         <v>47</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1755,10 +1755,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>2</v>
@@ -1767,7 +1767,7 @@
         <v>47</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1775,10 +1775,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>3</v>
@@ -1787,7 +1787,7 @@
         <v>47</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1795,10 +1795,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>4</v>
@@ -1807,7 +1807,7 @@
         <v>47</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1815,10 +1815,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>5</v>
@@ -1827,7 +1827,7 @@
         <v>47</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1835,7 +1835,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>93</v>
@@ -1847,7 +1847,7 @@
         <v>47</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1855,7 +1855,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>94</v>
@@ -1867,7 +1867,7 @@
         <v>47</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1875,7 +1875,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>96</v>
@@ -1887,7 +1887,7 @@
         <v>47</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1895,7 +1895,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>98</v>
@@ -1907,7 +1907,7 @@
         <v>47</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1915,7 +1915,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>99</v>
@@ -1927,7 +1927,7 @@
         <v>47</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1935,7 +1935,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>100</v>
@@ -1947,7 +1947,7 @@
         <v>47</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -2024,7 +2024,7 @@
         <v>11</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>110</v>
@@ -2124,7 +2124,7 @@
         <v>117</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>110</v>
@@ -2287,7 +2287,7 @@
         <v>134</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -2298,16 +2298,16 @@
         <v>132</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>134</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -2327,7 +2327,7 @@
         <v>134</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -2347,7 +2347,7 @@
         <v>134</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -2367,7 +2367,7 @@
         <v>134</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -2387,7 +2387,7 @@
         <v>134</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -2407,7 +2407,7 @@
         <v>134</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -2427,7 +2427,7 @@
         <v>134</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -2447,7 +2447,7 @@
         <v>134</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -2467,7 +2467,7 @@
         <v>134</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -2484,7 +2484,7 @@
         <v>148</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F58" s="3"/>
     </row>
@@ -2502,7 +2502,7 @@
         <v>150</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F59" s="3"/>
     </row>
@@ -2520,7 +2520,7 @@
         <v>24</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>152</v>
@@ -2540,7 +2540,7 @@
         <v>25</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>152</v>
@@ -2560,7 +2560,7 @@
         <v>26</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>152</v>
@@ -2580,7 +2580,7 @@
         <v>27</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>152</v>
@@ -2600,7 +2600,7 @@
         <v>28</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>152</v>
@@ -2620,7 +2620,7 @@
         <v>158</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>152</v>
@@ -2640,7 +2640,7 @@
         <v>29</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>160</v>
@@ -2678,7 +2678,7 @@
         <v>30</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>160</v>
@@ -2698,7 +2698,7 @@
         <v>166</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>160</v>
@@ -2718,7 +2718,7 @@
         <v>168</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>160</v>
@@ -2738,7 +2738,7 @@
         <v>170</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>160</v>
@@ -2758,7 +2758,7 @@
         <v>31</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>160</v>
@@ -2778,7 +2778,7 @@
         <v>173</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>160</v>
@@ -2798,7 +2798,7 @@
         <v>175</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>160</v>
@@ -2818,7 +2818,7 @@
         <v>32</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>160</v>
@@ -2838,7 +2838,7 @@
         <v>33</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>160</v>
@@ -2858,7 +2858,7 @@
         <v>179</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>160</v>
@@ -2941,7 +2941,7 @@
         <v>134</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -2961,7 +2961,7 @@
         <v>134</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -2981,7 +2981,7 @@
         <v>134</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
